--- a/testエクセル.xlsx
+++ b/testエクセル.xlsx
@@ -19,9 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developへマージ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -347,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -360,6 +364,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testエクセル.xlsx
+++ b/testエクセル.xlsx
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>aaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>developへマージ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -351,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -364,11 +360,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
